--- a/SGMC/rstudio_maps/data/world_centercount.xlsx
+++ b/SGMC/rstudio_maps/data/world_centercount.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Rmaps\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B432105C-50E4-4FFE-BDC5-705C3EB119F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEAB20A-FCF3-496D-8F31-E455B785F557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DFE31E2-1330-4C06-AC2C-0217E93FA2D4}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{2DFE31E2-1330-4C06-AC2C-0217E93FA2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Argentina</t>
   </si>
@@ -74,15 +74,6 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -98,18 +89,12 @@
     <t>Colombia</t>
   </si>
   <si>
-    <t>Congo</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>Cyprus</t>
   </si>
   <si>
@@ -149,9 +134,6 @@
     <t>Guatemala</t>
   </si>
   <si>
-    <t>Haiti</t>
-  </si>
-  <si>
     <t>Hungary</t>
   </si>
   <si>
@@ -224,12 +206,6 @@
     <t>Mozambique</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
@@ -251,9 +227,6 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
@@ -329,9 +302,6 @@
     <t>Uganda</t>
   </si>
   <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -351,6 +321,30 @@
   </si>
   <si>
     <t>center_count</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
   </si>
 </sst>
 </file>
@@ -366,15 +360,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -382,13 +382,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,23 +715,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359E1EB9-4F54-4001-B7B3-3360BBE9353E}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -730,10 +745,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1784</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2043</v>
       </c>
       <c r="C2" s="1">
         <v>35.1753</v>
@@ -744,10 +759,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1525</v>
+        <v>90</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1516</v>
       </c>
       <c r="C3" s="1">
         <v>40.0792</v>
@@ -758,10 +773,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1">
-        <v>359</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="3">
+        <v>445</v>
       </c>
       <c r="C4" s="1">
         <v>51.381900000000002</v>
@@ -772,10 +787,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="1">
-        <v>311</v>
+        <v>89</v>
+      </c>
+      <c r="B5" s="3">
+        <v>365</v>
       </c>
       <c r="C5" s="1">
         <v>52.289000000000001</v>
@@ -786,38 +801,38 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1">
-        <v>238</v>
+        <v>42</v>
+      </c>
+      <c r="B6" s="3">
+        <v>293</v>
       </c>
       <c r="C6" s="1">
-        <v>22.741</v>
+        <v>35.962000000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>78.236000000000004</v>
+        <v>137.85499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
+        <v>287</v>
       </c>
       <c r="C7" s="1">
-        <v>35.962000000000003</v>
+        <v>22.741</v>
       </c>
       <c r="D7" s="1">
-        <v>137.85499999999999</v>
+        <v>78.236000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="1">
-        <v>195</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="3">
+        <v>222</v>
       </c>
       <c r="C8" s="1">
         <v>40.616999999999997</v>
@@ -828,10 +843,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1">
-        <v>173</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="3">
+        <v>217</v>
       </c>
       <c r="C9" s="1">
         <v>46.655999999999999</v>
@@ -842,10 +857,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="1">
-        <v>147</v>
+        <v>77</v>
+      </c>
+      <c r="B10" s="3">
+        <v>173</v>
       </c>
       <c r="C10" s="1">
         <v>36.338000000000001</v>
@@ -855,11 +870,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1">
-        <v>134</v>
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3">
+        <v>161</v>
       </c>
       <c r="C11" s="1">
         <v>44.371299999999998</v>
@@ -872,8 +887,8 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>119</v>
+      <c r="B12" s="3">
+        <v>144</v>
       </c>
       <c r="C12" s="1">
         <v>-11.694000000000001</v>
@@ -884,66 +899,66 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <v>118</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>131</v>
       </c>
       <c r="C13" s="1">
-        <v>-24.577999999999999</v>
+        <v>59.206699999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>133.58199999999999</v>
+        <v>-111.19370000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>123</v>
       </c>
       <c r="C14" s="1">
-        <v>59.206699999999998</v>
+        <v>-24.577999999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-111.19370000000001</v>
+        <v>133.58199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="1">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="B15" s="3">
+        <v>105</v>
       </c>
       <c r="C15" s="1">
-        <v>64.736000000000004</v>
+        <v>46.779400000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>104.062</v>
+        <v>8.0328999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="1">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="B16" s="3">
+        <v>98</v>
       </c>
       <c r="C16" s="1">
-        <v>46.779400000000003</v>
+        <v>64.736000000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>8.0328999999999997</v>
+        <v>104.062</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="3">
+        <v>93</v>
       </c>
       <c r="C17" s="1">
         <v>52.170400000000001</v>
@@ -954,66 +969,66 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1">
-        <v>57</v>
+        <v>80</v>
+      </c>
+      <c r="B18" s="3">
+        <v>85</v>
       </c>
       <c r="C18" s="1">
-        <v>50.674500000000002</v>
+        <v>66.218800000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>4.4588000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="1">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B19" s="3">
+        <v>69</v>
       </c>
       <c r="C19" s="1">
-        <v>66.218800000000002</v>
+        <v>22.925000000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>19</v>
+        <v>-101.68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>67</v>
       </c>
       <c r="C20" s="1">
-        <v>49.847999999999999</v>
+        <v>50.674500000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>15.2812</v>
+        <v>4.4588000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>58</v>
       </c>
       <c r="C21" s="1">
-        <v>22.925000000000001</v>
+        <v>49.847999999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-101.68</v>
+        <v>15.2812</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>53</v>
       </c>
       <c r="C22" s="1">
         <v>56.113</v>
@@ -1024,10 +1039,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="1">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="B23" s="3">
+        <v>52</v>
       </c>
       <c r="C23" s="1">
         <v>52.442</v>
@@ -1038,248 +1053,248 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>51</v>
       </c>
       <c r="C24" s="1">
-        <v>30.992000000000001</v>
+        <v>47.65</v>
       </c>
       <c r="D24" s="1">
-        <v>34.834000000000003</v>
+        <v>14.705</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="1">
-        <v>35</v>
+        <v>73</v>
+      </c>
+      <c r="B25" s="3">
+        <v>49</v>
       </c>
       <c r="C25" s="1">
-        <v>61.370100000000001</v>
+        <v>1.3389</v>
       </c>
       <c r="D25" s="1">
-        <v>9.3031000000000006</v>
+        <v>103.8297</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="1">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B26" s="3">
+        <v>48</v>
       </c>
       <c r="C26" s="1">
-        <v>23.609100000000002</v>
+        <v>30.992000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>120.8353</v>
+        <v>34.834000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="1">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="3">
+        <v>48</v>
       </c>
       <c r="C27" s="1">
-        <v>-31.7</v>
+        <v>61.370100000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>23.440999999999999</v>
+        <v>9.3031000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="B28" s="3">
+        <v>48</v>
       </c>
       <c r="C28" s="1">
-        <v>-33.165999999999997</v>
+        <v>40.957000000000001</v>
       </c>
       <c r="D28" s="1">
-        <v>-64.31</v>
+        <v>-7.9372999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>41</v>
       </c>
       <c r="C29" s="1">
-        <v>47.65</v>
+        <v>-33.165999999999997</v>
       </c>
       <c r="D29" s="1">
-        <v>14.705</v>
+        <v>-64.31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="1">
-        <v>28</v>
+      <c r="B30" s="3">
+        <v>41</v>
       </c>
       <c r="C30" s="1">
-        <v>1.3389</v>
+        <v>23.609100000000002</v>
       </c>
       <c r="D30" s="1">
-        <v>103.8297</v>
+        <v>120.8353</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="1">
-        <v>26</v>
+        <v>76</v>
+      </c>
+      <c r="B31" s="3">
+        <v>33</v>
       </c>
       <c r="C31" s="1">
-        <v>-23.175999999999998</v>
+        <v>-31.7</v>
       </c>
       <c r="D31" s="1">
-        <v>-69.200999999999993</v>
+        <v>23.440999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="1">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="3">
+        <v>30</v>
       </c>
       <c r="C32" s="1">
-        <v>-42.558</v>
+        <v>4.4160000000000004</v>
       </c>
       <c r="D32" s="1">
-        <v>172.37700000000001</v>
+        <v>102.099</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="1">
-        <v>24</v>
+        <v>84</v>
+      </c>
+      <c r="B33" s="3">
+        <v>30</v>
       </c>
       <c r="C33" s="1">
-        <v>40.957000000000001</v>
+        <v>15.688000000000001</v>
       </c>
       <c r="D33" s="1">
-        <v>-7.9372999999999996</v>
+        <v>100.845</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="1">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="B34" s="3">
+        <v>29</v>
       </c>
       <c r="C34" s="1">
-        <v>15.688000000000001</v>
+        <v>-42.558</v>
       </c>
       <c r="D34" s="1">
-        <v>100.845</v>
+        <v>172.37700000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="1">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B35" s="3">
+        <v>28</v>
       </c>
       <c r="C35" s="1">
-        <v>4.4160000000000004</v>
+        <v>-23.175999999999998</v>
       </c>
       <c r="D35" s="1">
-        <v>102.099</v>
+        <v>-69.200999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="1">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B36" s="3">
+        <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>3.794</v>
+        <v>62.716000000000001</v>
       </c>
       <c r="D36" s="1">
-        <v>-73.605999999999995</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="1">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="3">
+        <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>62.716000000000001</v>
+        <v>3.794</v>
       </c>
       <c r="D37" s="1">
-        <v>26.192</v>
+        <v>-73.605999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="1">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="B38" s="3">
+        <v>22</v>
       </c>
       <c r="C38" s="1">
-        <v>53.213999999999999</v>
+        <v>39.786999999999999</v>
       </c>
       <c r="D38" s="1">
-        <v>-7.5880000000000001</v>
+        <v>21.617000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>22</v>
       </c>
       <c r="C39" s="1">
-        <v>39.786999999999999</v>
+        <v>33.408000000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>21.617000000000001</v>
+        <v>54.041800000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="1">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>22</v>
       </c>
       <c r="C40" s="1">
-        <v>33.408000000000001</v>
+        <v>53.213999999999999</v>
       </c>
       <c r="D40" s="1">
-        <v>54.041800000000002</v>
+        <v>-7.5880000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="B41" s="3">
+        <v>18</v>
       </c>
       <c r="C41" s="1">
         <v>47.173999999999999</v>
@@ -1290,10 +1305,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="1">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="B42" s="3">
+        <v>16</v>
       </c>
       <c r="C42" s="1">
         <v>39.143999999999998</v>
@@ -1304,164 +1319,164 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="1">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B43" s="3">
+        <v>14</v>
       </c>
       <c r="C43" s="1">
-        <v>24.190999999999999</v>
+        <v>26.16</v>
       </c>
       <c r="D43" s="1">
-        <v>44.32</v>
+        <v>28.742000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="1">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="B44" s="3">
+        <v>14</v>
       </c>
       <c r="C44" s="1">
-        <v>26.16</v>
+        <v>24.190999999999999</v>
       </c>
       <c r="D44" s="1">
-        <v>28.742000000000001</v>
+        <v>44.32</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>70</v>
+      <c r="A45" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B45" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>28.185400000000001</v>
+        <v>21.75</v>
       </c>
       <c r="D45" s="1">
-        <v>66.642899999999997</v>
+        <v>105.373</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="1">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="B46" s="3">
+        <v>12</v>
       </c>
       <c r="C46" s="1">
-        <v>-32.948</v>
+        <v>28.185400000000001</v>
       </c>
       <c r="D46" s="1">
-        <v>-56.249000000000002</v>
+        <v>66.642899999999997</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="1">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="B47" s="3">
+        <v>10</v>
       </c>
       <c r="C47" s="1">
-        <v>24.597999999999999</v>
+        <v>9.3416999999999994</v>
       </c>
       <c r="D47" s="1">
-        <v>90.196299999999994</v>
+        <v>7.6779999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3">
         <v>9</v>
       </c>
       <c r="C48" s="1">
-        <v>9.3416999999999994</v>
+        <v>24.597999999999999</v>
       </c>
       <c r="D48" s="1">
-        <v>7.6779999999999999</v>
+        <v>90.196299999999994</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="1">
-        <v>8</v>
+        <v>75</v>
+      </c>
+      <c r="B49" s="3">
+        <v>9</v>
       </c>
       <c r="C49" s="1">
-        <v>-0.73899999999999999</v>
+        <v>46.036999999999999</v>
       </c>
       <c r="D49" s="1">
-        <v>114.045</v>
+        <v>14.534000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="1">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="B50" s="3">
+        <v>9</v>
       </c>
       <c r="C50" s="1">
-        <v>-12.664</v>
+        <v>-32.948</v>
       </c>
       <c r="D50" s="1">
-        <v>-72.98</v>
+        <v>-56.249000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="1">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3">
         <v>8</v>
       </c>
       <c r="C51" s="1">
-        <v>-5.6509999999999998</v>
+        <v>-0.73899999999999999</v>
       </c>
       <c r="D51" s="1">
-        <v>34.146000000000001</v>
+        <v>114.045</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="1">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="B52" s="3">
+        <v>8</v>
       </c>
       <c r="C52" s="1">
-        <v>46.036999999999999</v>
+        <v>17.181000000000001</v>
       </c>
       <c r="D52" s="1">
-        <v>14.534000000000001</v>
+        <v>121.256</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="1">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="B53" s="3">
+        <v>8</v>
       </c>
       <c r="C53" s="1">
-        <v>48.866</v>
+        <v>18.234667999999999</v>
       </c>
       <c r="D53" s="1">
-        <v>69.772000000000006</v>
+        <v>-66.481065000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="1">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="B54" s="3">
+        <v>7</v>
       </c>
       <c r="C54" s="1">
         <v>49.670999999999999</v>
@@ -1472,679 +1487,651 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="1">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="B55" s="3">
+        <v>7</v>
       </c>
       <c r="C55" s="1">
-        <v>1.9392</v>
+        <v>-12.664</v>
       </c>
       <c r="D55" s="1">
-        <v>32.741500000000002</v>
+        <v>-72.98</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="1">
+        <v>44</v>
+      </c>
+      <c r="B56" s="3">
         <v>6</v>
       </c>
       <c r="C56" s="1">
-        <v>21.75</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="D56" s="1">
-        <v>105.373</v>
+        <v>38.165999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="1">
-        <v>5</v>
+        <v>88</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6</v>
       </c>
       <c r="C57" s="1">
-        <v>0.80600000000000005</v>
+        <v>23.9299</v>
       </c>
       <c r="D57" s="1">
-        <v>38.165999999999997</v>
+        <v>53.903100000000002</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="1">
+        <v>22</v>
+      </c>
+      <c r="B58" s="3">
         <v>5</v>
       </c>
       <c r="C58" s="1">
-        <v>17.181000000000001</v>
+        <v>-1.151</v>
       </c>
       <c r="D58" s="1">
-        <v>121.256</v>
+        <v>-78.308000000000007</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="1">
+        <v>43</v>
+      </c>
+      <c r="B59" s="3">
         <v>5</v>
       </c>
       <c r="C59" s="1">
-        <v>35.594000000000001</v>
+        <v>48.866</v>
       </c>
       <c r="D59" s="1">
-        <v>9.4209999999999994</v>
+        <v>69.772000000000006</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="1">
+        <v>18</v>
+      </c>
+      <c r="B60" s="3">
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>12.69</v>
+        <v>45.753999999999998</v>
       </c>
       <c r="D60" s="1">
-        <v>104.444</v>
+        <v>16.385000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="1">
+        <v>24</v>
+      </c>
+      <c r="B61" s="3">
         <v>4</v>
       </c>
       <c r="C61" s="1">
-        <v>55.341999999999999</v>
+        <v>58.777000000000001</v>
       </c>
       <c r="D61" s="1">
-        <v>24.23</v>
+        <v>25.977</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="1">
+        <v>67</v>
+      </c>
+      <c r="B62" s="3">
         <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>43.738399999999999</v>
+        <v>25.317399999999999</v>
       </c>
       <c r="D62" s="1">
-        <v>7.4242999999999997</v>
+        <v>51.152200000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="1">
+        <v>85</v>
+      </c>
+      <c r="B63" s="3">
         <v>4</v>
       </c>
       <c r="C63" s="1">
-        <v>25.317399999999999</v>
+        <v>35.594000000000001</v>
       </c>
       <c r="D63" s="1">
-        <v>51.152200000000001</v>
+        <v>9.4209999999999994</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="1">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B64" s="3">
+        <v>3</v>
       </c>
       <c r="C64" s="1">
-        <v>23.9299</v>
+        <v>64.825999999999993</v>
       </c>
       <c r="D64" s="1">
-        <v>53.903100000000002</v>
+        <v>-18.417000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1">
+        <v>45</v>
+      </c>
+      <c r="B65" s="3">
         <v>3</v>
       </c>
       <c r="C65" s="1">
-        <v>42.625</v>
+        <v>29.3169</v>
       </c>
       <c r="D65" s="1">
-        <v>24.521000000000001</v>
+        <v>47.427199999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="1">
+        <v>48</v>
+      </c>
+      <c r="B66" s="3">
         <v>3</v>
       </c>
       <c r="C66" s="1">
-        <v>10.125999999999999</v>
+        <v>55.341999999999999</v>
       </c>
       <c r="D66" s="1">
-        <v>-84.075000000000003</v>
+        <v>24.23</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="1">
+        <v>83</v>
+      </c>
+      <c r="B67" s="3">
         <v>3</v>
       </c>
       <c r="C67" s="1">
-        <v>45.753999999999998</v>
+        <v>-5.6509999999999998</v>
       </c>
       <c r="D67" s="1">
-        <v>16.385000000000002</v>
+        <v>34.146000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="1">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
       </c>
       <c r="C68" s="1">
-        <v>34.893999999999998</v>
+        <v>53.3292</v>
       </c>
       <c r="D68" s="1">
-        <v>32.927999999999997</v>
+        <v>27.949200000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="1">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
       </c>
       <c r="C69" s="1">
-        <v>-1.151</v>
+        <v>42.625</v>
       </c>
       <c r="D69" s="1">
-        <v>-78.308000000000007</v>
+        <v>24.521000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="1">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
       </c>
       <c r="C70" s="1">
-        <v>58.777000000000001</v>
+        <v>10.125999999999999</v>
       </c>
       <c r="D70" s="1">
-        <v>25.977</v>
+        <v>-84.075000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="1">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2</v>
       </c>
       <c r="C71" s="1">
-        <v>8.4350000000000005</v>
+        <v>34.893999999999998</v>
       </c>
       <c r="D71" s="1">
-        <v>38.786000000000001</v>
+        <v>32.927999999999997</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="1">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
       </c>
       <c r="C72" s="1">
-        <v>29.3169</v>
+        <v>57.017000000000003</v>
       </c>
       <c r="D72" s="1">
-        <v>47.427199999999999</v>
+        <v>25.017299999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="1">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2</v>
       </c>
       <c r="C73" s="1">
-        <v>57.017000000000003</v>
+        <v>34.161000000000001</v>
       </c>
       <c r="D73" s="1">
-        <v>25.017299999999999</v>
+        <v>36.021000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="1">
+        <v>54</v>
+      </c>
+      <c r="B74" s="3">
         <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>53.3292</v>
+        <v>31.129000000000001</v>
       </c>
       <c r="D74" s="1">
-        <v>27.949200000000001</v>
+        <v>-7.3550000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="1">
+        <v>56</v>
+      </c>
+      <c r="B75" s="3">
         <v>2</v>
       </c>
       <c r="C75" s="1">
-        <v>12.673</v>
+        <v>28.211400000000001</v>
       </c>
       <c r="D75" s="1">
-        <v>-1.226</v>
+        <v>83.5608</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="1">
+        <v>61</v>
+      </c>
+      <c r="B76" s="3">
         <v>2</v>
       </c>
       <c r="C76" s="1">
-        <v>64.825999999999993</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="D76" s="1">
-        <v>-18.417000000000002</v>
+        <v>56.25</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="1">
+        <v>71</v>
+      </c>
+      <c r="B77" s="3">
         <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>31.129000000000001</v>
+        <v>15.044</v>
       </c>
       <c r="D77" s="1">
-        <v>-7.3550000000000004</v>
+        <v>-15.081</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="1">
+        <v>72</v>
+      </c>
+      <c r="B78" s="3">
         <v>2</v>
       </c>
       <c r="C78" s="1">
-        <v>-21.276</v>
+        <v>44.021000000000001</v>
       </c>
       <c r="D78" s="1">
-        <v>17.219000000000001</v>
+        <v>20.699000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="1">
+        <v>74</v>
+      </c>
+      <c r="B79" s="3">
         <v>2</v>
       </c>
       <c r="C79" s="1">
-        <v>19.850000000000001</v>
+        <v>48.859499999999997</v>
       </c>
       <c r="D79" s="1">
-        <v>56.25</v>
+        <v>19.4434</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>15.044</v>
+        <v>26.024999999999999</v>
       </c>
       <c r="D80" s="1">
-        <v>-15.081</v>
+        <v>50.553400000000003</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="1">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
       </c>
       <c r="C81" s="1">
-        <v>48.859499999999997</v>
+        <v>44.341999999999999</v>
       </c>
       <c r="D81" s="1">
-        <v>19.4434</v>
+        <v>17.803999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="1">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>7.3</v>
+        <v>15.460196</v>
       </c>
       <c r="D82" s="1">
-        <v>80.727000000000004</v>
+        <v>-61.356841000000003</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B83" s="1">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
       </c>
       <c r="C83" s="1">
-        <v>49.363999999999997</v>
+        <v>8.4350000000000005</v>
       </c>
       <c r="D83" s="1">
-        <v>32.131999999999998</v>
+        <v>38.786000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="1">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>6.9829999999999997</v>
+        <v>-0.58632799999999996</v>
       </c>
       <c r="D84" s="1">
-        <v>-64.587999999999994</v>
+        <v>11.547829</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" s="1">
+        <v>28</v>
+      </c>
+      <c r="B85" s="3">
         <v>1</v>
       </c>
       <c r="C85" s="1">
-        <v>26.024999999999999</v>
+        <v>42.05</v>
       </c>
       <c r="D85" s="1">
-        <v>50.553400000000003</v>
+        <v>43.576000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="1">
+        <v>98</v>
+      </c>
+      <c r="B86" s="3">
         <v>1</v>
       </c>
       <c r="C86" s="1">
-        <v>44.341999999999999</v>
+        <v>12.113960000000001</v>
       </c>
       <c r="D86" s="1">
-        <v>17.803999999999998</v>
+        <v>-61.688501000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="1">
+        <v>97</v>
+      </c>
+      <c r="B87" s="3">
         <v>1</v>
       </c>
       <c r="C87" s="1">
-        <v>4.4000000000000004</v>
+        <v>13.427861</v>
       </c>
       <c r="D87" s="1">
-        <v>12.131</v>
+        <v>144.733813</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="1">
+        <v>31</v>
+      </c>
+      <c r="B88" s="3">
         <v>1</v>
       </c>
       <c r="C88" s="1">
-        <v>0.50900000000000001</v>
+        <v>15.124000000000001</v>
       </c>
       <c r="D88" s="1">
-        <v>16.079999999999998</v>
+        <v>-90.710999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="1">
+        <v>37</v>
+      </c>
+      <c r="B89" s="3">
         <v>1</v>
       </c>
       <c r="C89" s="1">
-        <v>20.571000000000002</v>
+        <v>33.545000000000002</v>
       </c>
       <c r="D89" s="1">
-        <v>-76.456000000000003</v>
+        <v>43.277999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="1">
+        <v>41</v>
+      </c>
+      <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" s="1">
-        <v>42.05</v>
+        <v>7.4969999999999999</v>
       </c>
       <c r="D90" s="1">
-        <v>43.576000000000001</v>
+        <v>-5.3360000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="1">
+        <v>99</v>
+      </c>
+      <c r="B91" s="3">
         <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>15.124000000000001</v>
+        <v>18.137122999999999</v>
       </c>
       <c r="D91" s="1">
-        <v>-90.710999999999999</v>
+        <v>-77.318766999999994</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="1">
+        <v>100</v>
+      </c>
+      <c r="B92" s="3">
         <v>1</v>
       </c>
       <c r="C92" s="1">
-        <v>19.317499999999999</v>
+        <v>30.802278000000001</v>
       </c>
       <c r="D92" s="1">
-        <v>-72.420500000000004</v>
+        <v>36.391378000000003</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="1">
+        <v>52</v>
+      </c>
+      <c r="B93" s="3">
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>33.545000000000002</v>
+        <v>43.738399999999999</v>
       </c>
       <c r="D93" s="1">
-        <v>43.277999999999999</v>
+        <v>7.4242999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" s="1">
+        <v>53</v>
+      </c>
+      <c r="B94" s="3">
         <v>1</v>
       </c>
       <c r="C94" s="1">
-        <v>7.4969999999999999</v>
+        <v>46.515999999999998</v>
       </c>
       <c r="D94" s="1">
-        <v>-5.3360000000000003</v>
+        <v>102.56399999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B95" s="1">
+        <v>55</v>
+      </c>
+      <c r="B95" s="3">
         <v>1</v>
       </c>
       <c r="C95" s="1">
-        <v>34.161000000000001</v>
+        <v>-13.852</v>
       </c>
       <c r="D95" s="1">
-        <v>36.021000000000001</v>
+        <v>38.042000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B96" s="1">
+        <v>101</v>
+      </c>
+      <c r="B96" s="3">
         <v>1</v>
       </c>
       <c r="C96" s="1">
-        <v>46.515999999999998</v>
+        <v>8.7249099999999995</v>
       </c>
       <c r="D96" s="1">
-        <v>102.56399999999999</v>
+        <v>-80.338453999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B97" s="1">
+        <v>68</v>
+      </c>
+      <c r="B97" s="3">
         <v>1</v>
       </c>
       <c r="C97" s="1">
-        <v>-13.852</v>
+        <v>45.933</v>
       </c>
       <c r="D97" s="1">
-        <v>38.042000000000002</v>
+        <v>25.119</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" s="1">
+        <v>79</v>
+      </c>
+      <c r="B98" s="3">
         <v>1</v>
       </c>
       <c r="C98" s="1">
-        <v>21.841000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="D98" s="1">
-        <v>96.05</v>
+        <v>80.727000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B99" s="1">
+        <v>87</v>
+      </c>
+      <c r="B99" s="3">
         <v>1</v>
       </c>
       <c r="C99" s="1">
-        <v>28.211400000000001</v>
+        <v>1.9392</v>
       </c>
       <c r="D99" s="1">
-        <v>83.5608</v>
+        <v>32.741500000000002</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" s="1">
+        <v>92</v>
+      </c>
+      <c r="B100" s="4">
         <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>-5.6360000000000001</v>
+        <v>6.9829999999999997</v>
       </c>
       <c r="D100" s="1">
-        <v>142.798</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" s="1">
-        <v>1</v>
-      </c>
-      <c r="C101" s="1">
-        <v>45.933</v>
-      </c>
-      <c r="D101" s="1">
-        <v>25.119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B102" s="1">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1">
-        <v>44.021000000000001</v>
-      </c>
-      <c r="D102" s="1">
-        <v>20.699000000000002</v>
+        <v>-64.587999999999994</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D102">
-    <sortCondition descending="1" ref="B1:B102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D100">
+    <sortCondition descending="1" ref="B1:B100"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
